--- a/API/Kanban/wwwroot/File1.xlsx
+++ b/API/Kanban/wwwroot/File1.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Board Id</t>
   </si>
   <si>
     <t>Board Name</t>
-  </si>
-  <si>
-    <t>New Board 1 2</t>
   </si>
 </sst>
 </file>
@@ -66,7 +63,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -80,14 +77,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
